--- a/migforecasting/cities15-16/1/d12.xlsx
+++ b/migforecasting/cities15-16/1/d12.xlsx
@@ -54,17 +54,10 @@
     <t>Одинцово</t>
   </si>
   <si>
-    <t>Орехово-
-Зуево</t>
-  </si>
-  <si>
     <t>Подольск</t>
   </si>
   <si>
     <t>Пушкино</t>
-  </si>
-  <si>
-    <t>Рамен-ское</t>
   </si>
   <si>
     <t>Реутов</t>
@@ -81,10 +74,6 @@
   </si>
   <si>
     <t>Щелково</t>
-  </si>
-  <si>
-    <t>Электро-
-сталь</t>
   </si>
   <si>
     <t>НАСЕЛЕНИЕ</t>
@@ -799,6 +788,15 @@
   </si>
   <si>
     <t>в 2,0 р.</t>
+  </si>
+  <si>
+    <t>Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>Электросталь</t>
+  </si>
+  <si>
+    <t>Раменское</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1232,7 @@
   <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,34 +1324,34 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" t="s">
-        <v>19</v>
-      </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1429,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1437,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
         <v>450.8</v>
@@ -1509,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1539,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>81.7</v>
@@ -1611,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>35.799999999999997</v>
@@ -1683,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>277.5</v>
@@ -1755,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4">
         <v>91.6</v>
@@ -1827,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4">
         <v>15.4</v>
@@ -1899,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
         <v>9</v>
@@ -1971,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <v>6.4</v>
@@ -2043,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4">
         <v>19544</v>
@@ -2115,10 +2113,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2147,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>49.6</v>
@@ -2219,67 +2217,67 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
         <v>388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7">
         <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>667</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R17" s="7">
         <v>324</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U17" s="7">
         <v>747</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W17" s="7">
         <v>859</v>
@@ -2291,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7">
         <v>1332</v>
@@ -2363,7 +2361,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2392,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="11">
         <v>48704.9</v>
@@ -2467,7 +2465,7 @@
         <v>13450.4</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E21" s="11">
         <v>13410.3</v>
@@ -2485,16 +2483,16 @@
         <v>13985.2</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K21" s="11">
         <v>13906.2</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N21" s="11">
         <v>12822.2</v>
@@ -2503,25 +2501,25 @@
         <v>13707.9</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S21" s="11">
         <v>13077.1</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W21" s="11">
         <v>14129.5</v>
@@ -2532,13 +2530,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="11">
         <v>112</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="11">
         <v>38.799999999999997</v>
@@ -2556,16 +2554,16 @@
         <v>49.8</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" s="11">
         <v>58.2</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N22" s="11">
         <v>73.7</v>
@@ -2574,25 +2572,25 @@
         <v>87.4</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S22" s="11">
         <v>74.2</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W22" s="11">
         <v>46.8</v>
@@ -2603,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="11">
         <v>27</v>
@@ -2612,7 +2610,7 @@
         <v>31.3</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F23" s="11">
         <v>22.1</v>
@@ -2624,37 +2622,37 @@
         <v>27.7</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="M23" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N23" s="11">
         <v>23.4</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R23" s="11">
         <v>29.9</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T23" s="11">
         <v>25.8</v>
@@ -2663,7 +2661,7 @@
         <v>42</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W23" s="11">
         <v>21.6</v>
@@ -2674,7 +2672,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="11">
         <v>101</v>
@@ -2745,7 +2743,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2774,7 +2772,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" s="11">
         <v>24</v>
@@ -2845,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" s="11">
         <v>18</v>
@@ -2916,7 +2914,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2945,67 +2943,67 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" s="11">
         <v>351</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" s="11">
         <v>308</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H29" s="11">
         <v>619</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N29" s="11">
         <v>388</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R29" s="11">
         <v>353</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U29" s="11">
         <v>539</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W29" s="11">
         <v>358</v>
@@ -3016,7 +3014,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" s="11">
         <v>23.2</v>
@@ -3031,25 +3029,25 @@
         <v>28.4</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H30" s="11">
         <v>28</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N30" s="11">
         <v>32.299999999999997</v>
@@ -3058,25 +3056,25 @@
         <v>37.4</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R30" s="11">
         <v>36.5</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U30" s="11">
         <v>22.5</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W30" s="11">
         <v>22.6</v>
@@ -3087,7 +3085,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3116,67 +3114,67 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" s="11">
         <v>543</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F32" s="11">
         <v>630</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H32" s="11">
         <v>1342</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N32" s="11">
         <v>1028</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R32" s="11">
         <v>521</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U32" s="11">
         <v>804</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W32" s="11">
         <v>830</v>
@@ -3187,7 +3185,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="11">
         <v>42.3</v>
@@ -3202,25 +3200,25 @@
         <v>58.1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H33" s="11">
         <v>60.7</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N33" s="11">
         <v>85.5</v>
@@ -3229,25 +3227,25 @@
         <v>78.2</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R33" s="11">
         <v>53.9</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U33" s="11">
         <v>33.5</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W33" s="11">
         <v>52.4</v>
@@ -3258,70 +3256,70 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W34" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3330,7 +3328,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
@@ -3339,64 +3337,64 @@
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4">
         <v>0.5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F36" s="4">
         <v>0.7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H36" s="4">
         <v>1.2</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N36" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R36" s="13">
         <v>0.3</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U36" s="13">
         <v>0.9</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W36" s="13">
         <v>0.8</v>
@@ -3421,25 +3419,25 @@
         <v>60.1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H37" s="4">
         <v>52.9</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N37" s="4">
         <v>91.7</v>
@@ -3448,25 +3446,25 @@
         <v>65</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R37" s="4">
         <v>34.299999999999997</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U37" s="4">
         <v>37.4</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W37" s="4">
         <v>50.7</v>
@@ -3479,67 +3477,67 @@
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X38" s="5"/>
     </row>
@@ -3549,7 +3547,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3580,64 +3578,64 @@
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D40" s="4">
         <v>1.7</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H40" s="4">
         <v>3.3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N40" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R40" s="4">
         <v>1</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U40" s="4">
         <v>3.1</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W40" s="4">
         <v>2.2000000000000002</v>
@@ -3662,25 +3660,25 @@
         <v>95.1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H41" s="4">
         <v>147.4</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N41" s="4">
         <v>191.4</v>
@@ -3689,25 +3687,25 @@
         <v>170.9</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R41" s="4">
         <v>104.8</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U41" s="4">
         <v>128</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W41" s="4">
         <v>141.6</v>
@@ -3891,7 +3889,7 @@
         <v>3704</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E45" s="4">
         <v>24105</v>
@@ -3909,7 +3907,7 @@
         <v>16616</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K45" s="4">
         <v>2278</v>
@@ -3918,7 +3916,7 @@
         <v>2358</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N45" s="4">
         <v>127</v>
@@ -3958,64 +3956,64 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F46" s="4">
         <v>1029</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H46" s="4">
         <v>2424</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U46" s="4">
         <v>2544</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W46" s="4">
         <v>1483</v>
@@ -4028,64 +4026,64 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F47" s="4">
         <v>338</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H47" s="4">
         <v>1080</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U47" s="4">
         <v>1479</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W47" s="4">
         <v>661</v>
@@ -4098,7 +4096,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4318,7 +4316,7 @@
         <v>0.05</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K52" s="7">
         <v>0.9</v>
@@ -4327,7 +4325,7 @@
         <v>2.8</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N52" s="7">
         <v>2.2000000000000002</v>
@@ -4336,7 +4334,7 @@
         <v>11.8</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="7">
         <v>2.9</v>
@@ -4406,7 +4404,7 @@
         <v>14.5</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="7">
         <v>5.2</v>
@@ -4437,7 +4435,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -4748,7 +4746,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -4849,7 +4847,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -4880,7 +4878,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -4911,67 +4909,67 @@
         <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V63" s="7">
         <v>137.19999999999999</v>
       </c>
       <c r="W63" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X63" s="14"/>
     </row>
@@ -5121,67 +5119,67 @@
         <v>64</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W66" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X66" s="14"/>
     </row>
@@ -5191,7 +5189,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -5225,7 +5223,7 @@
         <v>4510.8</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E68" s="7">
         <v>12323.6</v>
@@ -5273,7 +5271,7 @@
         <v>1190.2</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U68" s="7">
         <v>10165.4</v>
@@ -5432,7 +5430,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5472,10 +5470,10 @@
         <v>120</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H72" s="7">
         <v>120</v>
@@ -5496,25 +5494,25 @@
         <v>210</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q72" s="7">
         <v>150</v>
       </c>
       <c r="R72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U72" s="7">
         <v>580</v>
@@ -5523,7 +5521,7 @@
         <v>170</v>
       </c>
       <c r="W72" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X72" s="14"/>
     </row>
@@ -5542,7 +5540,7 @@
         <v>1890</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G73" s="7">
         <v>100</v>
@@ -5554,25 +5552,25 @@
         <v>900</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K73" s="7">
         <v>1990</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M73" s="7">
         <v>1352</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O73" s="7">
         <v>825</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q73" s="7">
         <v>400</v>
@@ -5581,19 +5579,19 @@
         <v>810</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U73" s="7">
         <v>1100</v>
       </c>
       <c r="V73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X73" s="14"/>
     </row>
@@ -5603,67 +5601,67 @@
         <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P74" s="7">
         <v>100</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W74" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X74" s="14"/>
     </row>
@@ -5676,64 +5674,64 @@
         <v>400</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M75" s="7">
         <v>600</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W75" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X75" s="14"/>
     </row>
@@ -5743,7 +5741,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -5822,7 +5820,7 @@
         <v>20755.8</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T77" s="7">
         <v>12653</v>
@@ -5880,10 +5878,10 @@
         <v>98.6</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q78" s="7">
         <v>108.6</v>
@@ -5987,13 +5985,13 @@
         <v>86.6</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E80" s="7">
         <v>95.5</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G80" s="7">
         <v>91.9</v>
@@ -6005,7 +6003,7 @@
         <v>89.5</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K80" s="7">
         <v>97.7</v>
@@ -6014,7 +6012,7 @@
         <v>101.5</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N80" s="7">
         <v>73.900000000000006</v>
@@ -6023,13 +6021,13 @@
         <v>134.30000000000001</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q80" s="7">
         <v>96.5</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S80" s="7">
         <v>119.4</v>

--- a/migforecasting/cities15-16/1/d12.xlsx
+++ b/migforecasting/cities15-16/1/d12.xlsx
@@ -63,10 +63,6 @@
     <t>Реутов</t>
   </si>
   <si>
-    <t>Сергиев 
-Посад</t>
-  </si>
-  <si>
     <t>Серпухов</t>
   </si>
   <si>
@@ -797,6 +793,9 @@
   </si>
   <si>
     <t>Раменское</t>
+  </si>
+  <si>
+    <t>Сергиев Посад</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1231,7 @@
   <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -1333,25 +1332,25 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" t="s">
         <v>13</v>
       </c>
       <c r="S2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>15</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" t="s">
-        <v>17</v>
-      </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1427,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1435,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>450.8</v>
@@ -1507,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1537,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>81.7</v>
@@ -1609,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>35.799999999999997</v>
@@ -1681,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>277.5</v>
@@ -1753,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
         <v>91.6</v>
@@ -1825,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
         <v>15.4</v>
@@ -1897,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <v>9</v>
@@ -1969,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
         <v>6.4</v>
@@ -2041,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
         <v>19544</v>
@@ -2113,10 +2112,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2145,7 +2144,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>49.6</v>
@@ -2217,67 +2216,67 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
         <v>388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7">
         <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
         <v>667</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R17" s="7">
         <v>324</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U17" s="7">
         <v>747</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W17" s="7">
         <v>859</v>
@@ -2289,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7">
         <v>1332</v>
@@ -2361,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2390,7 +2389,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="11">
         <v>48704.9</v>
@@ -2465,7 +2464,7 @@
         <v>13450.4</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="11">
         <v>13410.3</v>
@@ -2483,16 +2482,16 @@
         <v>13985.2</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="11">
         <v>13906.2</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N21" s="11">
         <v>12822.2</v>
@@ -2501,25 +2500,25 @@
         <v>13707.9</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S21" s="11">
         <v>13077.1</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W21" s="11">
         <v>14129.5</v>
@@ -2530,13 +2529,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11">
         <v>112</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="11">
         <v>38.799999999999997</v>
@@ -2554,16 +2553,16 @@
         <v>49.8</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22" s="11">
         <v>58.2</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N22" s="11">
         <v>73.7</v>
@@ -2572,25 +2571,25 @@
         <v>87.4</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S22" s="11">
         <v>74.2</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W22" s="11">
         <v>46.8</v>
@@ -2601,7 +2600,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="11">
         <v>27</v>
@@ -2610,7 +2609,7 @@
         <v>31.3</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="11">
         <v>22.1</v>
@@ -2622,37 +2621,37 @@
         <v>27.7</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="M23" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N23" s="11">
         <v>23.4</v>
       </c>
       <c r="O23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="Q23" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="R23" s="11">
         <v>29.9</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T23" s="11">
         <v>25.8</v>
@@ -2661,7 +2660,7 @@
         <v>42</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W23" s="11">
         <v>21.6</v>
@@ -2672,7 +2671,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="11">
         <v>101</v>
@@ -2743,7 +2742,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2772,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11">
         <v>24</v>
@@ -2843,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="11">
         <v>18</v>
@@ -2914,7 +2913,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2943,67 +2942,67 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="11">
         <v>351</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="11">
         <v>308</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="11">
         <v>619</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N29" s="11">
         <v>388</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R29" s="11">
         <v>353</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U29" s="11">
         <v>539</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W29" s="11">
         <v>358</v>
@@ -3014,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="11">
         <v>23.2</v>
@@ -3029,25 +3028,25 @@
         <v>28.4</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="11">
         <v>28</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N30" s="11">
         <v>32.299999999999997</v>
@@ -3056,25 +3055,25 @@
         <v>37.4</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R30" s="11">
         <v>36.5</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U30" s="11">
         <v>22.5</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W30" s="11">
         <v>22.6</v>
@@ -3085,7 +3084,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3114,67 +3113,67 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="11">
         <v>543</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="11">
         <v>630</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="11">
         <v>1342</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32" s="11">
         <v>1028</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R32" s="11">
         <v>521</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U32" s="11">
         <v>804</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W32" s="11">
         <v>830</v>
@@ -3185,7 +3184,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="11">
         <v>42.3</v>
@@ -3200,25 +3199,25 @@
         <v>58.1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="11">
         <v>60.7</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="11">
         <v>85.5</v>
@@ -3227,25 +3226,25 @@
         <v>78.2</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R33" s="11">
         <v>53.9</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U33" s="11">
         <v>33.5</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W33" s="11">
         <v>52.4</v>
@@ -3256,70 +3255,70 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3328,7 +3327,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
@@ -3337,64 +3336,64 @@
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4">
         <v>0.5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4">
         <v>0.7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="4">
         <v>1.2</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N36" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R36" s="13">
         <v>0.3</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U36" s="13">
         <v>0.9</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W36" s="13">
         <v>0.8</v>
@@ -3419,25 +3418,25 @@
         <v>60.1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="4">
         <v>52.9</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N37" s="4">
         <v>91.7</v>
@@ -3446,25 +3445,25 @@
         <v>65</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R37" s="4">
         <v>34.299999999999997</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U37" s="4">
         <v>37.4</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W37" s="4">
         <v>50.7</v>
@@ -3477,67 +3476,67 @@
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X38" s="5"/>
     </row>
@@ -3547,7 +3546,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3578,64 +3577,64 @@
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="4">
         <v>1.7</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" s="4">
         <v>3.3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N40" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R40" s="4">
         <v>1</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U40" s="4">
         <v>3.1</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W40" s="4">
         <v>2.2000000000000002</v>
@@ -3660,25 +3659,25 @@
         <v>95.1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="4">
         <v>147.4</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N41" s="4">
         <v>191.4</v>
@@ -3687,25 +3686,25 @@
         <v>170.9</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R41" s="4">
         <v>104.8</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U41" s="4">
         <v>128</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W41" s="4">
         <v>141.6</v>
@@ -3889,7 +3888,7 @@
         <v>3704</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="4">
         <v>24105</v>
@@ -3907,7 +3906,7 @@
         <v>16616</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K45" s="4">
         <v>2278</v>
@@ -3916,7 +3915,7 @@
         <v>2358</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N45" s="4">
         <v>127</v>
@@ -3956,64 +3955,64 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" s="4">
         <v>1029</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="4">
         <v>2424</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U46" s="4">
         <v>2544</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W46" s="4">
         <v>1483</v>
@@ -4026,64 +4025,64 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="4">
         <v>338</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="4">
         <v>1080</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U47" s="4">
         <v>1479</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W47" s="4">
         <v>661</v>
@@ -4096,7 +4095,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4316,7 +4315,7 @@
         <v>0.05</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K52" s="7">
         <v>0.9</v>
@@ -4325,7 +4324,7 @@
         <v>2.8</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N52" s="7">
         <v>2.2000000000000002</v>
@@ -4334,7 +4333,7 @@
         <v>11.8</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q52" s="7">
         <v>2.9</v>
@@ -4404,7 +4403,7 @@
         <v>14.5</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q53" s="7">
         <v>5.2</v>
@@ -4435,7 +4434,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -4746,7 +4745,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -4847,7 +4846,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -4878,7 +4877,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -4909,67 +4908,67 @@
         <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V63" s="7">
         <v>137.19999999999999</v>
       </c>
       <c r="W63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X63" s="14"/>
     </row>
@@ -5119,67 +5118,67 @@
         <v>64</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X66" s="14"/>
     </row>
@@ -5189,7 +5188,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -5223,7 +5222,7 @@
         <v>4510.8</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E68" s="7">
         <v>12323.6</v>
@@ -5271,7 +5270,7 @@
         <v>1190.2</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U68" s="7">
         <v>10165.4</v>
@@ -5430,7 +5429,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5470,10 +5469,10 @@
         <v>120</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H72" s="7">
         <v>120</v>
@@ -5494,25 +5493,25 @@
         <v>210</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q72" s="7">
         <v>150</v>
       </c>
       <c r="R72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U72" s="7">
         <v>580</v>
@@ -5521,7 +5520,7 @@
         <v>170</v>
       </c>
       <c r="W72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X72" s="14"/>
     </row>
@@ -5540,7 +5539,7 @@
         <v>1890</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" s="7">
         <v>100</v>
@@ -5552,25 +5551,25 @@
         <v>900</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K73" s="7">
         <v>1990</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M73" s="7">
         <v>1352</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O73" s="7">
         <v>825</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q73" s="7">
         <v>400</v>
@@ -5579,19 +5578,19 @@
         <v>810</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U73" s="7">
         <v>1100</v>
       </c>
       <c r="V73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X73" s="14"/>
     </row>
@@ -5601,67 +5600,67 @@
         <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P74" s="7">
         <v>100</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X74" s="14"/>
     </row>
@@ -5674,64 +5673,64 @@
         <v>400</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M75" s="7">
         <v>600</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X75" s="14"/>
     </row>
@@ -5741,7 +5740,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -5820,7 +5819,7 @@
         <v>20755.8</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T77" s="7">
         <v>12653</v>
@@ -5878,10 +5877,10 @@
         <v>98.6</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q78" s="7">
         <v>108.6</v>
@@ -5985,13 +5984,13 @@
         <v>86.6</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E80" s="7">
         <v>95.5</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G80" s="7">
         <v>91.9</v>
@@ -6003,7 +6002,7 @@
         <v>89.5</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K80" s="7">
         <v>97.7</v>
@@ -6012,7 +6011,7 @@
         <v>101.5</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N80" s="7">
         <v>73.900000000000006</v>
@@ -6021,13 +6020,13 @@
         <v>134.30000000000001</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q80" s="7">
         <v>96.5</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S80" s="7">
         <v>119.4</v>
